--- a/archive/Pulling/07-12Morning shift.xlsx
+++ b/archive/Pulling/07-12Morning shift.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\Desktop\Maximiliano Vedoya Ramirez\Dashboards development\Web\archive\Pulling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC3647-0D81-4EB0-BFEE-923E4423F7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -113,13 +119,16 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>Last Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,46 +522,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -516,34 +577,37 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>120</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>95</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>118</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>88</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>135</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>102</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,34 +615,37 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>38</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>165</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>153</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>128</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>69</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>73</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,31 +656,34 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>81</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>79</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>64</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>81</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>78</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -627,28 +697,31 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>91</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>92</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>74</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>64</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -662,28 +735,31 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>109</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>110</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>78</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>48</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -691,17 +767,17 @@
         <v>15</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>112</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -714,11 +790,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,31 +808,34 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>53</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>62</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>56</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>25</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -761,14 +843,14 @@
         <v>17</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>37</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>55</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -784,11 +866,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -811,19 +896,22 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>42</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>44</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -837,28 +925,31 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>26</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -875,11 +966,11 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -887,13 +978,16 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>15</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -922,9 +1016,12 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>32</v>
       </c>
     </row>
